--- a/2_levels_problem/mode2/Et_regression/set11/chainscore22.xlsx
+++ b/2_levels_problem/mode2/Et_regression/set11/chainscore22.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sijin wang\Documents\GitHub\SRH_sklearn_playwithdata\2_levels_problem\mode2\Et_regression\set11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{928E1379-331A-4B9C-8BC5-BE0B3F7DAC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB582D5-AC7F-4BAE-96B0-8DEBCBFBD809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chainscore22" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1036,6 +1048,358 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171761</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AA3993-7C68-42BB-BE1B-825A6F5990B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5116830" y="0"/>
+          <a:ext cx="3589331" cy="5250617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>392734</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC80A22F-6364-48D0-ABD8-0F8DAEFE006D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9071610" y="0"/>
+          <a:ext cx="3513124" cy="2629119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>583240</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BF6E69-20C2-4192-8130-283E0EFB1FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="5715000"/>
+          <a:ext cx="3574090" cy="5235376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552757</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>84033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BB381A-1CDB-425A-9840-71A42EF16414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="11049000"/>
+          <a:ext cx="3543607" cy="2560533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>575619</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC594C0-284E-4621-BDDD-2761C5A71EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="5715000"/>
+          <a:ext cx="3566469" cy="5258238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>598481</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>106895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E378611D-2222-4525-BA39-E68FB7755A75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="11049000"/>
+          <a:ext cx="3589331" cy="2583395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>598481</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>145220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18393881-3D69-41CE-88EC-2AA8F9D307D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14077950" y="5715000"/>
+          <a:ext cx="3589331" cy="5288720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>598481</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>107117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44471CE0-CAEF-4063-8005-44231F9E5969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18345150" y="5715000"/>
+          <a:ext cx="3589331" cy="5250617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1335,11 +1699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E13" sqref="A1:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G3:G8" si="0">AVERAGE(D4,D11,D18,D25,D32)</f>
+        <f t="shared" ref="G4:G8" si="0">AVERAGE(D4,D11,D18,D25,D32)</f>
         <v>0.43525982063685198</v>
       </c>
     </row>
